--- a/03-09-25 to 03-15-25 Madison Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Madison Schedule.xlsx
@@ -1668,12 +1668,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1908,21 +1908,9 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>

--- a/03-09-25 to 03-15-25 Madison Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,7 +2027,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2076,7 +2080,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2111,7 +2115,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2150,7 +2154,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
+          <t>4400 67TH AVE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2197,7 +2201,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4400 67TH AVE</t>
+          <t>https://maps.app.goo.gl/ZWbA1C6sND9D64WT7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2244,7 +2248,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZWbA1C6sND9D64WT7</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2291,7 +2295,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2336,11 +2340,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2382,9 +2382,22 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2415,20 +2428,15 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2493,12 +2501,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2568,12 +2576,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2643,15 +2651,20 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2706,20 +2719,15 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2772,16 +2780,8 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2888,7 +2888,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2937,7 +2941,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2992,7 +2996,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3039,7 +3043,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL   </t>
+          <t>PIGGLY WIGGLY #204, KENOSHA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3086,7 +3090,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #204, KENOSHA</t>
+          <t>2801 14TH PLACE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3133,7 +3137,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2801 14TH PLACE</t>
+          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3168,7 +3172,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3201,11 +3205,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3235,9 +3235,21 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3264,19 +3276,15 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3315,12 +3323,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3362,15 +3370,20 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3410,18 +3423,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3463,12 +3475,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3514,12 +3526,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3565,12 +3577,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3615,21 +3627,9 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3706,7 +3706,11 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3748,7 +3752,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3791,7 +3795,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>FESTIVAL #2697, WEST ALLIS - LIFO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3834,7 +3838,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FESTIVAL #2697, WEST ALLIS - LIFO</t>
+          <t>11111 W GREENFIELD AVE</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3865,7 +3869,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11111 W GREENFIELD AVE</t>
+          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3896,7 +3900,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3925,11 +3929,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3955,9 +3955,21 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3984,17 +3996,17 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -4023,12 +4035,12 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4062,12 +4074,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4101,12 +4113,12 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4140,12 +4152,12 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4179,12 +4191,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4218,12 +4230,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4257,12 +4269,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4296,12 +4308,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4333,21 +4345,9 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4400,7 +4400,11 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -4429,7 +4433,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -4460,7 +4464,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY WALWORTH CELLARS</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -4491,7 +4495,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>KELLEY WALWORTH CELLARS</t>
+          <t>690 KENOSHA ST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -4522,7 +4526,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>690 KENOSHA ST</t>
+          <t>https://maps.app.goo.gl/MtDv1BQiwir2d1ZS7</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -4553,7 +4557,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/MtDv1BQiwir2d1ZS7</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -4582,11 +4586,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -4612,9 +4612,21 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4641,19 +4653,15 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4680,12 +4688,12 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4715,15 +4723,19 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4750,17 +4762,18 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -4789,18 +4802,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4822,45 +4834,6 @@
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-09-25 to 03-15-25 Madison Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Madison Schedule.xlsx
@@ -1122,7 +1122,7 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1460,15 +1460,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1532,10 +1527,15 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Driver, 
+Corolla</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1604,14 +1604,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1684,10 +1680,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1843,15 +1843,10 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1919,14 +1914,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1981,10 +1975,16 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2034,8 +2034,16 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2121,11 +2129,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2162,7 +2166,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2209,7 +2213,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2256,7 +2260,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2303,7 +2307,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2346,7 +2350,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2400,7 +2404,11 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2438,21 +2446,9 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2513,17 +2509,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2588,17 +2584,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2666,9 +2662,21 @@
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>

--- a/03-09-25 to 03-15-25 Madison Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Madison Schedule.xlsx
@@ -980,7 +980,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>STORE RESET -</t>
+          <t>STORE RESET - REMAPPED</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
